--- a/Management/Planning/Timeline.xlsx
+++ b/Management/Planning/Timeline.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26606"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40114597\iCloudDrive\Desktop\Exjobb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Emil/Documents/Emil Andersson/Utbildning/Universitet/Exjobb/Multivariate-anomaly-detection/Management/Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{BB9C8DA6-0C01-4045-8681-E20C1CCE1B9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12980" yWindow="0" windowWidth="15820" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
@@ -28,22 +27,22 @@
     <definedName name="TitleRegion..BO60">Timeline!$B$3:$B$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Timeline!$3:$4</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>ACTIVITY</t>
   </si>
@@ -70,9 +69,6 @@
   </si>
   <si>
     <t>Plan Duration</t>
-  </si>
-  <si>
-    <t>Planning</t>
   </si>
   <si>
     <t>WEEK</t>
@@ -132,16 +128,19 @@
     <t>Make timeline</t>
   </si>
   <si>
-    <t>Writing</t>
+    <t>THESIS</t>
   </si>
   <si>
-    <t>THESIS</t>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -510,6 +509,93 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="14" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="16" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="17" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="18" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="6" borderId="1" xfId="13" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="12" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
@@ -525,229 +611,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="12" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="14" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="15" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="16" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="17" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="18" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="6" borderId="1" xfId="13" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="% complete" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="% complete (beyond plan) legend" xfId="18" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Actual (beyond plan) legend" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Actual legend" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="% complete" xfId="16"/>
+    <cellStyle name="% complete (beyond plan) legend" xfId="18"/>
+    <cellStyle name="Activity" xfId="2"/>
+    <cellStyle name="Actual (beyond plan) legend" xfId="17"/>
+    <cellStyle name="Actual legend" xfId="15"/>
     <cellStyle name="Förklarande text" xfId="12" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Label" xfId="5"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Period Value" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Plan legend" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Percent Complete" xfId="6"/>
+    <cellStyle name="Period Headers" xfId="3"/>
+    <cellStyle name="Period Highlight Control" xfId="7"/>
+    <cellStyle name="Period Value" xfId="13"/>
+    <cellStyle name="Plan legend" xfId="14"/>
+    <cellStyle name="Project Headers" xfId="4"/>
     <cellStyle name="Rubrik" xfId="8" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Rubrik 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Rubrik 2" xfId="9" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Rubrik 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Rubrik 4" xfId="11" builtinId="19" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="50">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="42">
     <dxf>
       <fill>
         <patternFill>
@@ -1581,30 +1467,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AO13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" style="2" customWidth="1"/>
     <col min="3" max="6" width="11.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="4" customWidth="1"/>
-    <col min="8" max="28" width="3.77734375" style="1" customWidth="1"/>
-    <col min="29" max="34" width="3.77734375" customWidth="1"/>
+    <col min="8" max="28" width="3.83203125" style="1" customWidth="1"/>
+    <col min="29" max="34" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:41" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="B1" s="15" t="s">
-        <v>15</v>
+    <row r="1" spans="2:41" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="B1" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1612,83 +1498,83 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="2:41" ht="29.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="32" t="s">
+    <row r="2" spans="2:41" ht="29.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="33">
-        <v>34</v>
-      </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19" t="s">
+      <c r="H2" s="27">
+        <v>35</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="19" t="s">
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="24" t="s">
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="31"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="25"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
     </row>
-    <row r="3" spans="2:41" s="7" customFormat="1" ht="24.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="2:41" s="7" customFormat="1" ht="24.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="43" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" s="5"/>
       <c r="S3" s="6"/>
@@ -1702,13 +1588,13 @@
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
     </row>
-    <row r="4" spans="2:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+    <row r="4" spans="2:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="40"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
       <c r="H4" s="3">
         <v>33</v>
       </c>
@@ -1771,466 +1657,464 @@
       </c>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="2:41" s="43" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="39" t="s">
+    <row r="5" spans="2:41" s="37" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="34">
+        <v>33</v>
+      </c>
+      <c r="D5" s="34">
+        <v>20</v>
+      </c>
+      <c r="E5" s="34">
+        <v>33</v>
+      </c>
+      <c r="F5" s="34">
+        <v>2</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+    </row>
+    <row r="6" spans="2:41" s="37" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="34">
+        <v>33</v>
+      </c>
+      <c r="D6" s="34">
+        <v>2</v>
+      </c>
+      <c r="E6" s="34">
+        <v>33</v>
+      </c>
+      <c r="F6" s="34">
+        <v>2</v>
+      </c>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+    </row>
+    <row r="7" spans="2:41" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="29">
+        <v>33</v>
+      </c>
+      <c r="D7" s="29">
+        <v>1</v>
+      </c>
+      <c r="E7" s="29">
+        <v>33</v>
+      </c>
+      <c r="F7" s="29">
+        <v>2</v>
+      </c>
+      <c r="G7" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="31"/>
+    </row>
+    <row r="8" spans="2:41" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="29">
+        <v>34</v>
+      </c>
+      <c r="D8" s="29">
+        <v>1</v>
+      </c>
+      <c r="E8" s="29">
+        <v>34</v>
+      </c>
+      <c r="F8" s="29">
+        <v>1</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="31"/>
+    </row>
+    <row r="9" spans="2:41" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="29">
+        <v>34</v>
+      </c>
+      <c r="D9" s="29">
+        <v>1</v>
+      </c>
+      <c r="E9" s="29">
+        <v>34</v>
+      </c>
+      <c r="F9" s="29">
+        <v>1</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="31"/>
+    </row>
+    <row r="10" spans="2:41" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="40">
-        <v>33</v>
-      </c>
-      <c r="D5" s="40">
-        <v>20</v>
-      </c>
-      <c r="E5" s="40">
-        <v>33</v>
-      </c>
-      <c r="F5" s="40">
-        <v>2</v>
-      </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
+      <c r="C10" s="29">
+        <v>34</v>
+      </c>
+      <c r="D10" s="29">
+        <v>19</v>
+      </c>
+      <c r="E10" s="29">
+        <v>34</v>
+      </c>
+      <c r="F10" s="29">
+        <v>1</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="28"/>
     </row>
-    <row r="6" spans="2:41" s="43" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="40">
-        <v>33</v>
-      </c>
-      <c r="D6" s="40">
-        <v>2</v>
-      </c>
-      <c r="E6" s="40">
-        <v>33</v>
-      </c>
-      <c r="F6" s="40">
-        <v>2</v>
-      </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="42"/>
+    <row r="11" spans="2:41" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="32"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
     </row>
-    <row r="7" spans="2:41" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="35">
-        <v>33</v>
-      </c>
-      <c r="D7" s="35">
-        <v>1</v>
-      </c>
-      <c r="E7" s="35">
-        <v>33</v>
-      </c>
-      <c r="F7" s="35">
-        <v>2</v>
-      </c>
-      <c r="G7" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="37"/>
+    <row r="12" spans="2:41" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="28"/>
     </row>
-    <row r="8" spans="2:41" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="38" t="s">
+    <row r="13" spans="2:41" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="35">
-        <v>34</v>
-      </c>
-      <c r="D8" s="35">
-        <v>1</v>
-      </c>
-      <c r="E8" s="35">
-        <v>34</v>
-      </c>
-      <c r="F8" s="35">
-        <v>1</v>
-      </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-    </row>
-    <row r="9" spans="2:41" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="35">
-        <v>34</v>
-      </c>
-      <c r="D9" s="35">
-        <v>1</v>
-      </c>
-      <c r="E9" s="35">
-        <v>34</v>
-      </c>
-      <c r="F9" s="35">
-        <v>1</v>
-      </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-    </row>
-    <row r="10" spans="2:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="35">
-        <v>34</v>
-      </c>
-      <c r="D10" s="35">
-        <v>19</v>
-      </c>
-      <c r="E10" s="35">
-        <v>34</v>
-      </c>
-      <c r="F10" s="35">
-        <v>1</v>
-      </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="34"/>
-    </row>
-    <row r="11" spans="2:41" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="37"/>
-    </row>
-    <row r="12" spans="2:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="34"/>
-    </row>
-    <row r="13" spans="2:41" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <conditionalFormatting sqref="H6:AB12">
-    <cfRule type="expression" dxfId="49" priority="33">
+    <cfRule type="expression" dxfId="41" priority="33">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="35">
+    <cfRule type="expression" dxfId="40" priority="35">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="36">
+    <cfRule type="expression" dxfId="39" priority="36">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="37">
+    <cfRule type="expression" dxfId="38" priority="37">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="38">
+    <cfRule type="expression" dxfId="37" priority="38">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="39">
+    <cfRule type="expression" dxfId="36" priority="39">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="43">
+    <cfRule type="expression" dxfId="35" priority="43">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="44">
+    <cfRule type="expression" dxfId="34" priority="44">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:AB14">
-    <cfRule type="expression" dxfId="41" priority="34">
+    <cfRule type="expression" dxfId="33" priority="34">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:AB4">
-    <cfRule type="expression" dxfId="40" priority="40">
+    <cfRule type="expression" dxfId="32" priority="40">
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:AB11">
-    <cfRule type="expression" dxfId="39" priority="25">
+    <cfRule type="expression" dxfId="31" priority="25">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="26">
+    <cfRule type="expression" dxfId="30" priority="26">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="27">
+    <cfRule type="expression" dxfId="29" priority="27">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="28">
+    <cfRule type="expression" dxfId="28" priority="28">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="29">
+    <cfRule type="expression" dxfId="27" priority="29">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="30">
+    <cfRule type="expression" dxfId="26" priority="30">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="31">
+    <cfRule type="expression" dxfId="25" priority="31">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="32">
+    <cfRule type="expression" dxfId="24" priority="32">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:AB13">
-    <cfRule type="expression" dxfId="31" priority="17">
+    <cfRule type="expression" dxfId="23" priority="17">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="18">
+    <cfRule type="expression" dxfId="22" priority="18">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="19">
+    <cfRule type="expression" dxfId="21" priority="19">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="20">
+    <cfRule type="expression" dxfId="20" priority="20">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="21">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="23">
+    <cfRule type="expression" dxfId="17" priority="23">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24">
+    <cfRule type="expression" dxfId="16" priority="24">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:AB11">
-    <cfRule type="expression" dxfId="23" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="10">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="11">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="12">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="13">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="14">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="9" priority="15">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2261,24 +2145,24 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="N2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="R2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AB2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="V2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="N2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="R2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AB2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="V2"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -2286,25 +2170,20 @@
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56E4A06-A9D2-46E0-AEB4-C463365BEBBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="15.5546875" customWidth="1"/>
+    <col min="1" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
